--- a/Output/July/productivity_TL_valid/productivity_TL_2022-07-18_valid.xlsx
+++ b/Output/July/productivity_TL_valid/productivity_TL_2022-07-18_valid.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="63">
   <si>
     <t>date</t>
   </si>
@@ -79,6 +79,9 @@
     <t>2022-07-18</t>
   </si>
   <si>
+    <t>sp99125</t>
+  </si>
+  <si>
     <t>sp99095</t>
   </si>
   <si>
@@ -109,6 +112,9 @@
     <t>sp99015</t>
   </si>
   <si>
+    <t>陳妍琳</t>
+  </si>
+  <si>
     <t>王瑞芳</t>
   </si>
   <si>
@@ -160,6 +166,9 @@
     <t>INBOUND</t>
   </si>
   <si>
+    <t>移庫控場</t>
+  </si>
+  <si>
     <t>出貨控場</t>
   </si>
   <si>
@@ -173,9 +182,6 @@
   </si>
   <si>
     <t>盤點控場_四樓</t>
-  </si>
-  <si>
-    <t>移庫控場</t>
   </si>
   <si>
     <t>TRANSFER</t>
@@ -561,7 +567,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T20"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -635,55 +641,55 @@
         <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="H2" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="I2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K2">
-        <v>50</v>
+        <v>1473</v>
       </c>
       <c r="L2" s="2">
-        <v>44760.28707175926</v>
+        <v>44760.28502314815</v>
       </c>
       <c r="M2" s="2">
-        <v>44760.32223379629</v>
+        <v>44761.30793981482</v>
       </c>
       <c r="O2">
-        <v>0.8333333333333334</v>
+        <v>24.55</v>
       </c>
       <c r="P2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="Q2" t="b">
         <v>0</v>
       </c>
       <c r="R2">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="S2">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="T2">
-        <v>0.3396226415094339</v>
+        <v>0.09677419354838709</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -694,55 +700,55 @@
         <v>21</v>
       </c>
       <c r="C3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G3" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="H3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="I3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K3">
-        <v>301</v>
+        <v>50</v>
       </c>
       <c r="L3" s="2">
-        <v>44760.28872685185</v>
+        <v>44760.28707175926</v>
       </c>
       <c r="M3" s="2">
-        <v>44760.49827546296</v>
+        <v>44760.32223379629</v>
       </c>
       <c r="O3">
-        <v>5.016666666666667</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="P3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="Q3" t="b">
         <v>0</v>
       </c>
       <c r="R3">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="S3">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="T3">
-        <v>0.273972602739726</v>
+        <v>0.4150943396226415</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -753,55 +759,55 @@
         <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E4" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F4" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G4" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I4" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J4" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K4">
-        <v>228</v>
+        <v>301</v>
       </c>
       <c r="L4" s="2">
-        <v>44760.29758101852</v>
+        <v>44760.28872685185</v>
       </c>
       <c r="M4" s="2">
-        <v>44760.45643518519</v>
+        <v>44760.49827546296</v>
       </c>
       <c r="O4">
-        <v>3.8</v>
+        <v>5.016666666666667</v>
       </c>
       <c r="P4" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="Q4" t="b">
         <v>0</v>
       </c>
       <c r="R4">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="S4">
-        <v>0</v>
+        <v>73</v>
       </c>
       <c r="T4">
-        <v>0</v>
+        <v>0.3835616438356164</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -809,58 +815,58 @@
         <v>19</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F5" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G5" t="s">
+        <v>51</v>
+      </c>
+      <c r="H5" t="s">
         <v>47</v>
       </c>
-      <c r="H5" t="s">
-        <v>44</v>
-      </c>
       <c r="I5" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J5" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K5">
-        <v>498</v>
+        <v>228</v>
       </c>
       <c r="L5" s="2">
-        <v>44760.32226851852</v>
+        <v>44760.29758101852</v>
       </c>
       <c r="M5" s="2">
-        <v>44760.66855324074</v>
+        <v>44760.45643518519</v>
       </c>
       <c r="O5">
-        <v>8.300000000000001</v>
+        <v>3.8</v>
       </c>
       <c r="P5" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="Q5" t="b">
         <v>0</v>
       </c>
       <c r="R5">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>89</v>
+        <v>0</v>
       </c>
       <c r="T5">
-        <v>0.2359550561797753</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -868,58 +874,58 @@
         <v>19</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F6" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G6" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="H6" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="I6" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J6" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K6">
-        <v>520</v>
+        <v>498</v>
       </c>
       <c r="L6" s="2">
-        <v>44760.32378472222</v>
+        <v>44760.32226851852</v>
       </c>
       <c r="M6" s="2">
-        <v>44760.68494212963</v>
+        <v>44760.66855324074</v>
       </c>
       <c r="O6">
-        <v>8.666666666666666</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="P6" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="Q6" t="b">
         <v>0</v>
       </c>
       <c r="R6">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="S6">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="T6">
-        <v>0.25</v>
+        <v>0.3932584269662922</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -930,55 +936,55 @@
         <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H7" t="s">
         <v>46</v>
       </c>
       <c r="I7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K7">
-        <v>236</v>
+        <v>520</v>
       </c>
       <c r="L7" s="2">
-        <v>44760.33356481481</v>
+        <v>44760.32378472222</v>
       </c>
       <c r="M7" s="2">
-        <v>44760.49790509259</v>
+        <v>44760.68494212963</v>
       </c>
       <c r="O7">
-        <v>3.933333333333333</v>
+        <v>8.666666666666666</v>
       </c>
       <c r="P7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="Q7" t="b">
         <v>0</v>
       </c>
       <c r="R7">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="S7">
-        <v>22</v>
+        <v>92</v>
       </c>
       <c r="T7">
-        <v>0.5909090909090909</v>
+        <v>0.4021739130434783</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -989,55 +995,55 @@
         <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D8" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E8" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G8" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="H8" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J8" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K8">
-        <v>181</v>
+        <v>236</v>
       </c>
       <c r="L8" s="2">
-        <v>44760.33366898148</v>
+        <v>44760.33356481481</v>
       </c>
       <c r="M8" s="2">
-        <v>44760.45993055555</v>
+        <v>44760.49790509259</v>
       </c>
       <c r="O8">
-        <v>3.016666666666667</v>
+        <v>3.933333333333333</v>
       </c>
       <c r="P8" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="Q8" t="b">
         <v>0</v>
       </c>
       <c r="R8">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="S8">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="T8">
-        <v>0.6111111111111112</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -1048,55 +1054,55 @@
         <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D9" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E9" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="G9" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="H9" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J9" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K9">
-        <v>414</v>
+        <v>181</v>
       </c>
       <c r="L9" s="2">
-        <v>44760.33600694445</v>
+        <v>44760.33366898148</v>
       </c>
       <c r="M9" s="2">
-        <v>44760.62405092592</v>
+        <v>44760.45993055555</v>
       </c>
       <c r="O9">
-        <v>6.9</v>
+        <v>3.016666666666667</v>
       </c>
       <c r="P9" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="Q9" t="b">
         <v>0</v>
       </c>
       <c r="R9">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="S9">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="T9">
-        <v>0.07692307692307693</v>
+        <v>0.4117647058823529</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1107,55 +1113,55 @@
         <v>27</v>
       </c>
       <c r="C10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D10" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E10" t="s">
         <v>43</v>
       </c>
       <c r="F10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G10" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H10" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="I10" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J10" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K10">
-        <v>233</v>
+        <v>414</v>
       </c>
       <c r="L10" s="2">
-        <v>44760.33856481482</v>
+        <v>44760.33600694445</v>
       </c>
       <c r="M10" s="2">
-        <v>44760.50074074074</v>
+        <v>44760.62405092592</v>
       </c>
       <c r="O10">
-        <v>3.883333333333333</v>
+        <v>6.9</v>
       </c>
       <c r="P10" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="Q10" t="b">
         <v>0</v>
       </c>
       <c r="R10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S10">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="T10">
-        <v>0</v>
+        <v>0.07692307692307693</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1163,58 +1169,58 @@
         <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C11" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D11" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E11" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G11" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="H11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I11" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J11" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="K11">
-        <v>300</v>
+        <v>233</v>
       </c>
       <c r="L11" s="2">
-        <v>44760.49828703704</v>
+        <v>44760.33856481482</v>
       </c>
       <c r="M11" s="2">
-        <v>44760.70667824074</v>
+        <v>44760.50074074074</v>
       </c>
       <c r="O11">
-        <v>5</v>
+        <v>3.883333333333333</v>
       </c>
       <c r="P11" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="Q11" t="b">
         <v>0</v>
       </c>
       <c r="R11">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="S11">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="T11">
-        <v>0.36</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1222,58 +1228,58 @@
         <v>19</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D12" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E12" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="G12" t="s">
+        <v>52</v>
+      </c>
+      <c r="H12" t="s">
         <v>48</v>
       </c>
-      <c r="H12" t="s">
-        <v>45</v>
-      </c>
       <c r="I12" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J12" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K12">
-        <v>235</v>
+        <v>300</v>
       </c>
       <c r="L12" s="2">
-        <v>44760.50543981481</v>
+        <v>44760.49828703704</v>
       </c>
       <c r="M12" s="2">
-        <v>44760.66878472222</v>
+        <v>44760.70667824074</v>
       </c>
       <c r="O12">
-        <v>3.916666666666667</v>
+        <v>5</v>
       </c>
       <c r="P12" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="Q12" t="b">
         <v>0</v>
       </c>
       <c r="R12">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="S12">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="T12">
-        <v>0</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1281,58 +1287,58 @@
         <v>19</v>
       </c>
       <c r="B13" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C13" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D13" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E13" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F13" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G13" t="s">
+        <v>51</v>
+      </c>
+      <c r="H13" t="s">
         <v>47</v>
       </c>
-      <c r="H13" t="s">
-        <v>44</v>
-      </c>
       <c r="I13" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J13" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K13">
-        <v>214</v>
+        <v>235</v>
       </c>
       <c r="L13" s="2">
-        <v>44760.53833333333</v>
+        <v>44760.50543981481</v>
       </c>
       <c r="M13" s="2">
-        <v>44760.68710648148</v>
+        <v>44760.66878472222</v>
       </c>
       <c r="O13">
-        <v>3.566666666666667</v>
+        <v>3.916666666666667</v>
       </c>
       <c r="P13" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="Q13" t="b">
         <v>0</v>
       </c>
       <c r="R13">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="S13">
-        <v>76</v>
+        <v>0</v>
       </c>
       <c r="T13">
-        <v>0.2236842105263158</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1340,55 +1346,55 @@
         <v>19</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D14" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E14" t="s">
         <v>43</v>
       </c>
       <c r="F14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G14" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H14" t="s">
         <v>46</v>
       </c>
       <c r="I14" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J14" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K14">
-        <v>142</v>
+        <v>214</v>
       </c>
       <c r="L14" s="2">
-        <v>44760.54050925926</v>
+        <v>44760.53833333333</v>
       </c>
       <c r="M14" s="2">
-        <v>44760.63965277778</v>
+        <v>44760.68710648148</v>
       </c>
       <c r="O14">
-        <v>2.366666666666667</v>
+        <v>3.566666666666667</v>
       </c>
       <c r="P14" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="Q14" t="b">
         <v>0</v>
       </c>
       <c r="R14">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="S14">
-        <v>19</v>
+        <v>76</v>
       </c>
       <c r="T14">
         <v>0.3684210526315789</v>
@@ -1399,58 +1405,58 @@
         <v>19</v>
       </c>
       <c r="B15" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D15" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E15" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H15" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="I15" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J15" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K15">
-        <v>103</v>
+        <v>142</v>
       </c>
       <c r="L15" s="2">
-        <v>44760.55166666667</v>
+        <v>44760.54050925926</v>
       </c>
       <c r="M15" s="2">
-        <v>44760.62371527778</v>
+        <v>44760.63965277778</v>
       </c>
       <c r="O15">
-        <v>1.716666666666667</v>
+        <v>2.366666666666667</v>
       </c>
       <c r="P15" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="Q15" t="b">
         <v>0</v>
       </c>
       <c r="R15">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S15">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="T15">
-        <v>0</v>
+        <v>0.1578947368421053</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1458,46 +1464,46 @@
         <v>19</v>
       </c>
       <c r="B16" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C16" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D16" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E16" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G16" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="H16" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="I16" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J16" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K16">
-        <v>121</v>
+        <v>103</v>
       </c>
       <c r="L16" s="2">
-        <v>44760.63927083334</v>
+        <v>44760.55166666667</v>
       </c>
       <c r="M16" s="2">
-        <v>44760.72387731481</v>
+        <v>44760.62371527778</v>
       </c>
       <c r="O16">
-        <v>2.016666666666667</v>
+        <v>1.716666666666667</v>
       </c>
       <c r="P16" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="Q16" t="b">
         <v>0</v>
@@ -1506,7 +1512,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="T16">
         <v>0</v>
@@ -1520,43 +1526,43 @@
         <v>27</v>
       </c>
       <c r="C17" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D17" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E17" t="s">
         <v>43</v>
       </c>
       <c r="F17" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G17" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H17" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="I17" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J17" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K17">
-        <v>94</v>
+        <v>121</v>
       </c>
       <c r="L17" s="2">
-        <v>44760.64009259259</v>
+        <v>44760.63927083334</v>
       </c>
       <c r="M17" s="2">
-        <v>44760.70553240741</v>
+        <v>44760.72387731481</v>
       </c>
       <c r="O17">
-        <v>1.566666666666667</v>
+        <v>2.016666666666667</v>
       </c>
       <c r="P17" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="Q17" t="b">
         <v>0</v>
@@ -1565,7 +1571,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="T17">
         <v>0</v>
@@ -1579,55 +1585,55 @@
         <v>28</v>
       </c>
       <c r="C18" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D18" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E18" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G18" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="H18" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="I18" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J18" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="K18">
-        <v>127</v>
+        <v>94</v>
       </c>
       <c r="L18" s="2">
-        <v>44760.66216435185</v>
+        <v>44760.64009259259</v>
       </c>
       <c r="M18" s="2">
-        <v>44760.75071759259</v>
+        <v>44760.70553240741</v>
       </c>
       <c r="O18">
-        <v>2.116666666666667</v>
+        <v>1.566666666666667</v>
       </c>
       <c r="P18" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="Q18" t="b">
         <v>0</v>
       </c>
       <c r="R18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S18">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="T18">
-        <v>0.125</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1638,55 +1644,55 @@
         <v>29</v>
       </c>
       <c r="C19" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D19" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E19" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G19" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="H19" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="I19" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J19" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K19">
-        <v>549</v>
+        <v>127</v>
       </c>
       <c r="L19" s="2">
-        <v>44760.66450231482</v>
+        <v>44760.66216435185</v>
       </c>
       <c r="M19" s="2">
-        <v>44761.04607638889</v>
+        <v>44760.75071759259</v>
       </c>
       <c r="O19">
-        <v>9.15</v>
+        <v>2.116666666666667</v>
       </c>
       <c r="P19" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="Q19" t="b">
         <v>0</v>
       </c>
       <c r="R19">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="S19">
-        <v>57</v>
+        <v>8</v>
       </c>
       <c r="T19">
-        <v>0.2280701754385965</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1694,57 +1700,116 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C20" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D20" t="s">
+        <v>42</v>
+      </c>
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>46</v>
+      </c>
+      <c r="G20" t="s">
+        <v>50</v>
+      </c>
+      <c r="H20" t="s">
+        <v>46</v>
+      </c>
+      <c r="I20" t="s">
+        <v>56</v>
+      </c>
+      <c r="J20" t="s">
+        <v>57</v>
+      </c>
+      <c r="K20">
+        <v>549</v>
+      </c>
+      <c r="L20" s="2">
+        <v>44760.66450231482</v>
+      </c>
+      <c r="M20" s="2">
+        <v>44761.04607638889</v>
+      </c>
+      <c r="O20">
+        <v>9.15</v>
+      </c>
+      <c r="P20" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q20" t="b">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>18</v>
+      </c>
+      <c r="S20">
+        <v>57</v>
+      </c>
+      <c r="T20">
+        <v>0.3157894736842105</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>29</v>
+      </c>
+      <c r="C21" t="s">
         <v>40</v>
       </c>
-      <c r="E20" t="s">
+      <c r="D21" t="s">
         <v>42</v>
       </c>
-      <c r="F20" t="s">
+      <c r="E21" t="s">
         <v>44</v>
       </c>
-      <c r="G20" t="s">
-        <v>52</v>
-      </c>
-      <c r="H20" t="s">
-        <v>53</v>
-      </c>
-      <c r="I20" t="s">
-        <v>54</v>
-      </c>
-      <c r="J20" t="s">
+      <c r="F21" t="s">
+        <v>46</v>
+      </c>
+      <c r="G21" t="s">
+        <v>49</v>
+      </c>
+      <c r="H21" t="s">
         <v>55</v>
       </c>
-      <c r="K20">
+      <c r="I21" t="s">
+        <v>56</v>
+      </c>
+      <c r="J21" t="s">
+        <v>57</v>
+      </c>
+      <c r="K21">
         <v>67</v>
       </c>
-      <c r="L20" s="2">
+      <c r="L21" s="2">
         <v>44760.78976851852</v>
       </c>
-      <c r="M20" s="2">
+      <c r="M21" s="2">
         <v>44760.83678240741</v>
       </c>
-      <c r="O20">
+      <c r="O21">
         <v>1.116666666666667</v>
       </c>
-      <c r="P20" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q20" t="b">
-        <v>0</v>
-      </c>
-      <c r="R20">
-        <v>0</v>
-      </c>
-      <c r="S20">
-        <v>0</v>
-      </c>
-      <c r="T20">
+      <c r="P21" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q21" t="b">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+      <c r="T21">
         <v>0</v>
       </c>
     </row>
@@ -1755,7 +1820,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1784,47 +1849,47 @@
         <v>17</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C2" t="s">
         <v>19</v>
       </c>
       <c r="D2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E2">
         <v>9.15</v>
       </c>
       <c r="F2">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G2">
         <v>57</v>
       </c>
       <c r="H2">
-        <v>0.2280701754385965</v>
+        <v>0.3157894736842105</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C3" t="s">
         <v>19</v>
       </c>
       <c r="D3" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="E3">
         <v>8.916666666666668</v>
@@ -1841,16 +1906,16 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C4" t="s">
         <v>19</v>
       </c>
       <c r="D4" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="E4">
         <v>7.166666666666666</v>
@@ -1867,16 +1932,16 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C5" t="s">
         <v>19</v>
       </c>
       <c r="D5" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E5">
         <v>7.716666666666667</v>
@@ -1893,120 +1958,120 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B6" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C6" t="s">
         <v>19</v>
       </c>
       <c r="D6" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="E6">
         <v>8.016666666666666</v>
       </c>
       <c r="F6">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="G6">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H6">
-        <v>0.4651162790697674</v>
+        <v>0.2682926829268293</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C7" t="s">
         <v>19</v>
       </c>
       <c r="D7" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="E7">
         <v>6.3</v>
       </c>
       <c r="F7">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="G7">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H7">
-        <v>0.4878048780487805</v>
+        <v>0.3076923076923077</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B8" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C8" t="s">
         <v>19</v>
       </c>
       <c r="D8" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E8">
         <v>8.666666666666666</v>
       </c>
       <c r="F8">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="G8">
         <v>92</v>
       </c>
       <c r="H8">
-        <v>0.25</v>
+        <v>0.4021739130434783</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C9" t="s">
         <v>19</v>
       </c>
       <c r="D9" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E9">
         <v>9.133333333333335</v>
       </c>
       <c r="F9">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="G9">
         <v>142</v>
       </c>
       <c r="H9">
-        <v>0.2746478873239437</v>
+        <v>0.4014084507042254</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B10" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C10" t="s">
         <v>19</v>
       </c>
       <c r="D10" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E10">
         <v>3.233333333333333</v>
@@ -2023,28 +2088,54 @@
     </row>
     <row r="11" spans="1:8">
       <c r="A11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C11" t="s">
         <v>19</v>
       </c>
       <c r="D11" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E11">
         <v>8.583333333333334</v>
       </c>
       <c r="F11">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="G11">
         <v>149</v>
       </c>
       <c r="H11">
-        <v>0.2483221476510067</v>
+        <v>0.3758389261744967</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" t="s">
+        <v>49</v>
+      </c>
+      <c r="E12">
+        <v>24.55</v>
+      </c>
+      <c r="F12">
+        <v>3</v>
+      </c>
+      <c r="G12">
+        <v>31</v>
+      </c>
+      <c r="H12">
+        <v>0.09677419354838709</v>
       </c>
     </row>
   </sheetData>
@@ -2054,7 +2145,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2068,32 +2159,32 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2">
-        <v>0.2280701754385965</v>
+        <v>0.3157894736842105</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -2104,10 +2195,10 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -2118,10 +2209,10 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -2132,66 +2223,66 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B6" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
       <c r="D6">
-        <v>0.4651162790697674</v>
+        <v>0.2682926829268293</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
       <c r="D7">
-        <v>0.4878048780487805</v>
+        <v>0.3076923076923077</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B8" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
       <c r="D8">
-        <v>0.25</v>
+        <v>0.4021739130434783</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C9">
         <v>1</v>
       </c>
       <c r="D9">
-        <v>0.2746478873239437</v>
+        <v>0.4014084507042254</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B10" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -2202,16 +2293,30 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>0.3758389261744967</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" t="s">
         <v>31</v>
       </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="D11">
-        <v>0.2483221476510067</v>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>0.09677419354838709</v>
       </c>
     </row>
   </sheetData>
@@ -2221,7 +2326,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2241,21 +2346,21 @@
         <v>19</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D2">
-        <v>0.2280701754385965</v>
+        <v>0.3157894736842105</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -2263,13 +2368,13 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C3" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D3">
         <v>0.04545454545454546</v>
@@ -2280,13 +2385,13 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C4" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -2297,13 +2402,13 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C5" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -2314,16 +2419,16 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B6" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C6" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D6">
-        <v>0.4651162790697674</v>
+        <v>0.2682926829268293</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -2331,16 +2436,16 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C7" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D7">
-        <v>0.4878048780487805</v>
+        <v>0.3076923076923077</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -2348,16 +2453,16 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B8" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C8" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D8">
-        <v>0.25</v>
+        <v>0.4021739130434783</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -2365,16 +2470,16 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C9" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D9">
-        <v>0.2746478873239437</v>
+        <v>0.4014084507042254</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -2382,13 +2487,13 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B10" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C10" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D10">
         <v>0.125</v>
@@ -2399,18 +2504,35 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" t="s">
+        <v>50</v>
+      </c>
+      <c r="D11">
+        <v>0.3758389261744967</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" t="s">
         <v>31</v>
       </c>
-      <c r="C11" t="s">
-        <v>47</v>
-      </c>
-      <c r="D11">
-        <v>0.2483221476510067</v>
-      </c>
-      <c r="E11">
+      <c r="C12" t="s">
+        <v>49</v>
+      </c>
+      <c r="D12">
+        <v>0.09677419354838709</v>
+      </c>
+      <c r="E12">
         <v>1</v>
       </c>
     </row>
